--- a/LookUpTable_NACA0012.xlsx
+++ b/LookUpTable_NACA0012.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\csbemt_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DBD4FB-17C8-4D2A-BFC3-0A01FE7893B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6819EAC-4F1E-4DE8-B996-7CEEC4BB9A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{52E8E44D-2FA1-4EE4-92A0-7A69F74A01BB}"/>
+    <workbookView xWindow="28680" yWindow="1770" windowWidth="29040" windowHeight="15720" xr2:uid="{52E8E44D-2FA1-4EE4-92A0-7A69F74A01BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84BAFE0-3C2D-4656-BD81-B759462EFE4B}">
   <dimension ref="A1:U362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/LookUpTable_NACA0012.xlsx
+++ b/LookUpTable_NACA0012.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\csbemt_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6819EAC-4F1E-4DE8-B996-7CEEC4BB9A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FC1C23-6C32-49D8-9985-A21CBF0DB432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1770" windowWidth="29040" windowHeight="15720" xr2:uid="{52E8E44D-2FA1-4EE4-92A0-7A69F74A01BB}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:U362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/LookUpTable_NACA0012.xlsx
+++ b/LookUpTable_NACA0012.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\csbemt_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FC1C23-6C32-49D8-9985-A21CBF0DB432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3195ACC1-E79E-402D-80CE-1D69C7E3F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1770" windowWidth="29040" windowHeight="15720" xr2:uid="{52E8E44D-2FA1-4EE4-92A0-7A69F74A01BB}"/>
+    <workbookView xWindow="28695" yWindow="9420" windowWidth="16410" windowHeight="18840" xr2:uid="{52E8E44D-2FA1-4EE4-92A0-7A69F74A01BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -434,9 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84BAFE0-3C2D-4656-BD81-B759462EFE4B}">
   <dimension ref="A1:U362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
